--- a/biology/Zoologie/Centruroides_simplex/Centruroides_simplex.xlsx
+++ b/biology/Zoologie/Centruroides_simplex/Centruroides_simplex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides simplex est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Aruba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Aruba.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 61 mm[2].
-Les mâles mesurent de 44 à 51 mm et les femelles de 33 à 65 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 61 mm.
+Les mâles mesurent de 44 à 51 mm et les femelles de 33 à 65 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Centrurus granosus simplex par Thorell en 1876. Elle est placée en synonymie avec Centruroides margaritatus par Pocock en 1902[4]. Elle est relevée de synonymie et élevée au rang d'espèce par Armas, Teruel et Kovařík en 2011[3] qui dans le même temps place Rhopalurus hasethi arubensis en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Centrurus granosus simplex par Thorell en 1876. Elle est placée en synonymie avec Centruroides margaritatus par Pocock en 1902. Elle est relevée de synonymie et élevée au rang d'espèce par Armas, Teruel et Kovařík en 2011 qui dans le même temps place Rhopalurus hasethi arubensis en synonymie.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1876 : « Études Scorpiologiques. » Atti della Societa Italiana di Scienze Naturali, vol. 19, p. 75–272 (texte intégral).</t>
         </is>
